--- a/xlsx/Grid-Drawing-Import-Error.xlsx
+++ b/xlsx/Grid-Drawing-Import-Error.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>SR</t>
   </si>
@@ -22,13 +22,10 @@
     <t>ERR_MSG</t>
   </si>
   <si>
-    <t/>
+    <t>resw</t>
   </si>
   <si>
-    <t>PLT 12 MM</t>
-  </si>
-  <si>
-    <t>Item "PLT 12 MM" not found in the system.</t>
+    <t>Item "resw" not found in the system.</t>
   </si>
 </sst>
 </file>
@@ -431,14 +428,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
